--- a/tspi/ciclo-1/logt3/20106065.xlsx
+++ b/tspi/ciclo-1/logt3/20106065.xlsx
@@ -8,14 +8,14 @@
     <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="456" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LOGT3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="logt3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -62,19 +62,28 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Reunión de Equipo</t>
-  </si>
-  <si>
-    <t>Tuvimos una reunión de equipo para la asignación de las tareas del ciclo #1.</t>
-  </si>
-  <si>
-    <t>Cree la agenda para la reunión #2 con el cliente.</t>
+    <t>13,14,15</t>
   </si>
   <si>
     <t>Participe en la creación del borrador #1 del diagrama de caso s de uso, y del borrador #1 de los escenarios.</t>
   </si>
   <si>
     <t>Experimiento redmine #1; Instalarlo y configurarlo.</t>
+  </si>
+  <si>
+    <t>Reporte semanal semana 2 ciclo 1</t>
+  </si>
+  <si>
+    <t>Reunión de equipo para analizar la minuta de la reunión #2 con el cliente.</t>
+  </si>
+  <si>
+    <t>Crear la versión final del diagrama de casos de uso.</t>
+  </si>
+  <si>
+    <t>Extender los casos de uso.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #1 de TSPi.</t>
   </si>
 </sst>
 </file>
@@ -192,7 +201,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
@@ -200,10 +209,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
@@ -232,6 +241,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -250,21 +262,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E12" activeCellId="0" pane="topLeft" sqref="E12"/>
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.3647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="49.1294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="6" width="12.4823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.7176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.6588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="18.1333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="50.1137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.7333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="1">
@@ -279,7 +291,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="10" t="n">
-        <v>41912</v>
+        <v>41916</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -313,132 +325,209 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="13" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="E5" s="3" t="n">
+        <f aca="false">SUM(E7:E13)/60</f>
+        <v>7.95</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="6" s="6">
-      <c r="A6" s="1" t="n">
-        <v>41912</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.993055555555556</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <f aca="false">((HOUR(C6)-HOUR(B6))*60)+(MINUTE(C6)-MINUTE(B6))-D6</f>
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7" s="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
-        <v>41913</v>
+        <v>41917</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.895833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.911805555555556</v>
+        <v>0.440972222222222</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="n">
         <f aca="false">((HOUR(C7)-HOUR(B7))*60)+(MINUTE(C7)-MINUTE(B7))-D7</f>
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8">
+        <v>75</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
-        <v>41917</v>
+        <v>41918</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.375</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.440972222222222</v>
+        <v>0.470138888888889</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">((HOUR(C8)-HOUR(B8))*60)+(MINUTE(C8)-MINUTE(B8))-D8</f>
-        <v>75</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
-        <v>41918</v>
+        <v>41921</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.375</v>
+        <v>0.631944444444444</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.470138888888889</v>
+        <v>0.66875</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="n">
         <f aca="false">((HOUR(C9)-HOUR(B9))*60)+(MINUTE(C9)-MINUTE(B9))-D9</f>
-        <v>112</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="n">
+        <v>41923</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.418055555555556</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.493055555555556</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <f aca="false">((HOUR(C10)-HOUR(B10))*60)+(MINUTE(C10)-MINUTE(B10))-D10</f>
+        <v>98</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="n">
+        <v>41923</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.496527777777778</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="E11" s="3" t="n">
-        <f aca="false">SUM(E6:E9)/60</f>
-        <v>4.08333333333333</v>
+        <f aca="false">((HOUR(C11)-HOUR(B11))*60)+(MINUTE(C11)-MINUTE(B11))-D11</f>
+        <v>30</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="n">
+        <v>41923</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.607638888888889</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.659722222222222</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <f aca="false">((HOUR(C12)-HOUR(B12))*60)+(MINUTE(C12)-MINUTE(B12))-D12</f>
+        <v>75</v>
+      </c>
+      <c r="F12" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="n">
+        <v>41923</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.677083333333333</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <f aca="false">((HOUR(C13)-HOUR(B13))*60)+(MINUTE(C13)-MINUTE(B13))-D13</f>
+        <v>44</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/ciclo-1/logt3/20106065.xlsx
+++ b/tspi/ciclo-1/logt3/20106065.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Elaborar el reporte de cierre del ciclo #1 de TSPi.</t>
+  </si>
+  <si>
+    <t>Actualizaciones al plan general.</t>
   </si>
 </sst>
 </file>
@@ -262,21 +265,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+      <selection activeCell="E6" activeCellId="0" pane="topLeft" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.7333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.7333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.7176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.6588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="18.1333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.7333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="50.1137254901961"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.7960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.7960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.7137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="18.2235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.7960784313726"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="50.3607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.7960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="1">
@@ -327,8 +330,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
       <c r="E5" s="3" t="n">
-        <f aca="false">SUM(E7:E13)/60</f>
-        <v>7.95</v>
+        <f aca="false">SUM(E7:E14)/60</f>
+        <v>10.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
@@ -528,6 +531,27 @@
       <c r="G13" s="4"/>
       <c r="H13" s="6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="n">
+        <v>41924</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.569444444444444</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.689583333333333</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">((HOUR(C14)-HOUR(B14))*60)+(MINUTE(C14)-MINUTE(B14))-D14</f>
+        <v>153</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
